--- a/biology/Médecine/Endurance/Endurance.xlsx
+++ b/biology/Médecine/Endurance/Endurance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'endurance est la capacité de maintenir dans le temps un certain niveau d'intensité exigée.
 Scientifiquement, on définit l'endurance comme une aptitude à maintenir un effort d'une intensité relative donnée pendant une durée prolongée. Elle peut se quantifier par un taux de diminution de l'intensité relative de l'exercice au fur et à mesure qu'augmente la durée des épreuves.
@@ -512,7 +524,9 @@
           <t>Philosophie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Socrate, l'endurance était  une des trois vertus majeures[réf. nécessaire].
 </t>
@@ -543,21 +557,128 @@
           <t>Sport</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En sport, et de manière générale pour les efforts physiques, l'endurance physique fait intervenir les facteurs suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En sport, et de manière générale pour les efforts physiques, l'endurance physique fait intervenir les facteurs suivants :
 endurance cardiovasculaire et respiratoire : le cœur et la respiration doivent fournir un apport en oxygène suffisant pour maintenir l'intensité voulue ;
 endurance musculaire : le travail prolongé fait notamment intervenir les fibres musculaires de type 1 ;
 volonté, résistance morale à la fatigue.
 On trouve également des épreuves d'endurance dans plusieurs disciplines sportives :
-Athlétisme
-En athlétisme, l'endurance concerne les courses de fond (5 000 mètres, 10 000 mètres, marathon) voire demi-fond (800 mètres et 1 500 mètres).
-Sport mécanique
-En sport automobile ou motocycliste, l’endurance est une forme de compétition destinée à tester la régularité des véhicules dans un temps ou une distance donnée. L'épreuve d'endurance la plus connue sont les 24 Heures du Mans.
-Tests d'endurance
-Test de « Temps limite » : pour mesurer l'endurance, il est possible de mesurer le temps passé à un certain pourcentage de « VO2max » (la consommation maximale d'oxygène). On appelle ensuite cette valeur « Temps limite à x % VO2max ». Par exemple, quelqu'un qui a une vitesse maximale aérobie (VMA) de 20 km/h peut tester combien de temps il pourra courir à 90 % VMA, soit 18 km/h. Il y a  cependant quelques problèmes avec cette méthode : le test est très difficile au niveau mental et il faut connaître très exactement sa VMA. En revanche, cette méthode peut être assez utile pour se comparer à soi-même dans le temps, par exemple chaque année, faire un test de VMA, suivi d'un test de temps limite.
-Pour compenser la difficulté de ce test, le travail de recherche[1] d’un laboratoire du CNRS au sein du MIT, mené par Thorsten Emig, Guillaume Adam  et Matthew Mulligan, a mis en évidence une mesure du niveau d’endurance, à partir de résultats de courses. La VMA du coureur et son indice d’endurance peuvent être calculés à partir de deux résultats de courses sur des distances différentes. L’endurance longue distance (pour des courses entre environ 6 minutes et 4 à 5 heures d’effort) calculée représente la durée pendant laquelle un coureur peut courir 90% de sa VMA. Le calcul est le suivant : Endurance longue distance = durée pendant laquelle un coureur court à 90% de sa VMA / temps de soutien à VMA (que l’on peut fixer à 6min pour les coureurs sans référence sur piste). L’étude de milliers de coureurs a montré que l’endurance longue distance peut aller de 3 à 10. Si on a une endurance de 10, on peut courir 1h à 90% de sa VMA, ce qui est exceptionnel. Si on a une endurance de 3, on peut courir seulement 18 minutes à 90% de sa VMA[2].
-Nomogramme de Mercier : le nomogramme de Mercier est un outil efficace pour déterminer sa VO2max et son indice d'endurance à partir de résultats de course.  Il en existe des abaques[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Endurance</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endurance</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Athlétisme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En athlétisme, l'endurance concerne les courses de fond (5 000 mètres, 10 000 mètres, marathon) voire demi-fond (800 mètres et 1 500 mètres).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Endurance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endurance</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sport mécanique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En sport automobile ou motocycliste, l’endurance est une forme de compétition destinée à tester la régularité des véhicules dans un temps ou une distance donnée. L'épreuve d'endurance la plus connue sont les 24 Heures du Mans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Endurance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endurance</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tests d'endurance</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Test de « Temps limite » : pour mesurer l'endurance, il est possible de mesurer le temps passé à un certain pourcentage de « VO2max » (la consommation maximale d'oxygène). On appelle ensuite cette valeur « Temps limite à x % VO2max ». Par exemple, quelqu'un qui a une vitesse maximale aérobie (VMA) de 20 km/h peut tester combien de temps il pourra courir à 90 % VMA, soit 18 km/h. Il y a  cependant quelques problèmes avec cette méthode : le test est très difficile au niveau mental et il faut connaître très exactement sa VMA. En revanche, cette méthode peut être assez utile pour se comparer à soi-même dans le temps, par exemple chaque année, faire un test de VMA, suivi d'un test de temps limite.
+Pour compenser la difficulté de ce test, le travail de recherche d’un laboratoire du CNRS au sein du MIT, mené par Thorsten Emig, Guillaume Adam  et Matthew Mulligan, a mis en évidence une mesure du niveau d’endurance, à partir de résultats de courses. La VMA du coureur et son indice d’endurance peuvent être calculés à partir de deux résultats de courses sur des distances différentes. L’endurance longue distance (pour des courses entre environ 6 minutes et 4 à 5 heures d’effort) calculée représente la durée pendant laquelle un coureur peut courir 90% de sa VMA. Le calcul est le suivant : Endurance longue distance = durée pendant laquelle un coureur court à 90% de sa VMA / temps de soutien à VMA (que l’on peut fixer à 6min pour les coureurs sans référence sur piste). L’étude de milliers de coureurs a montré que l’endurance longue distance peut aller de 3 à 10. Si on a une endurance de 10, on peut courir 1h à 90% de sa VMA, ce qui est exceptionnel. Si on a une endurance de 3, on peut courir seulement 18 minutes à 90% de sa VMA.
+Nomogramme de Mercier : le nomogramme de Mercier est un outil efficace pour déterminer sa VO2max et son indice d'endurance à partir de résultats de course.  Il en existe des abaques.
 Indice d'endurance de Peronnet : il représente la définition mathématique de l'endurance consistant à calculer la pente de la relation entre l'intensité moyenne tenue en compétition et le logarithme naturel du temps de performance. Elle donne un indice allant de -2 (excellent) à -12 (très faible).
 Voici des indices d'endurance[réf. nécessaire] de coureurs célèbres : 
 Paula Radcliffe : -4,85
